--- a/Texts/Город Сокровищ/Город/Связь-Лавка Элективайра.xlsx
+++ b/Texts/Город Сокровищ/Город/Связь-Лавка Элективайра.xlsx
@@ -608,20 +608,6 @@
 свой истинный потенциал!</t>
   </si>
   <si>
-    <t xml:space="preserve"> Íïçîï ñàèäåìéóû òâÿèàîîúå
-ðñéæíú, åòìé âúáñàóû ëïíàîäô
-"Ñàèäåìéóû".[C]
- Óú óàëçå íïçåšû òíåîéóû ðïñÿäïë
-ðñéíåîåîéÿ òâÿèàîîúö ðñéæíïâ.[C]
- Òíåîé éö, èàçàâ [M:B7] é
-îàçéíàÿ ââåñö éìé âîéè îà [M:B8].[C]
- Ðïäôíàê, ëàëéå ðñéæíú íïçîï
-òâÿèàóû, œóïáú äïòóéœû íïþîïê òåñéé
-ðñéæíïâ![C]
- Üëòðåñéíåîóéñôê é ñàòëñïê
-òâïê éòóéîîúê ðïóåîøéàì!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> What if you had to forget a
 move, then later wanted it back?[K]
 It happens a lot, right?[C]
@@ -687,6 +673,20 @@
   <si>
     <t xml:space="preserve"> Åòìé óåáå ðïîàäïáéóòÿ òâÿèàóû
 ðñéæíú, îàâåòóé íåîÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íïçîï ñàèäåìéóû òâÿèàîîúå
+ðñéæíú, åòìé âúáñàóû ëïíàîäô
+"Ñàèäåìéóû".[C]
+ Óú óàëçå íïçåšû òíåîéóû
+ðïñÿäïë ðñéíåîåîéÿ òâÿèàîîúö ðñéæíïâ.[C]
+ Òíåîé éö, èàçàâ [M:B7] é
+îàçéíàÿ ââåñö éìé âîéè îà [M:B8].[C]
+ Ðïäôíàê, ëàëéå ðñéæíú íïçîï
+òâÿèàóû, œóïáú äïòóéœû íïþîïê òåñéé
+ðñéæíïâ![C]
+ Üëòðåñéíåîóéñôê é ñàòëñïê
+òâïê éòóéîîúê ðïóåîøéàì!</t>
   </si>
 </sst>
 </file>
@@ -1142,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1779,7 +1779,7 @@
         <v>110</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="183.6" x14ac:dyDescent="0.3">
@@ -1789,13 +1789,13 @@
         <v>1039</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D40" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -1805,13 +1805,13 @@
         <v>1040</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D41" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="12" t="s">
         <v>116</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
